--- a/biology/Botanique/Tropaeolum_peregrinum/Tropaeolum_peregrinum.xlsx
+++ b/biology/Botanique/Tropaeolum_peregrinum/Tropaeolum_peregrinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tropaeolum peregrinum, la capucine des Canaries (en anglais canary-creeper ) ou fleur-canari, vigne des Canaries, est une espèce de plantes à fleurs de la famille des Tropaeolaceae et du genre Tropaeolum (les capucines) originaire de l'ouest de l'Amérique du Sud au Pérou et peut-être aussi en Équateur [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tropaeolum peregrinum, la capucine des Canaries (en anglais canary-creeper ) ou fleur-canari, vigne des Canaries, est une espèce de plantes à fleurs de la famille des Tropaeolaceae et du genre Tropaeolum (les capucines) originaire de l'ouest de l'Amérique du Sud au Pérou et peut-être aussi en Équateur .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante grimpante atteignant 2,5 m de hauteur en d'autres végétaux comme support. Les feuilles ont 2 à 5 cm de diamètre, lobées palmées avec trois à sept (principalement cinq) lobes ; elles sont subpeltées, avec le pétiole attaché à l'intérieur de la feuille (et non au bord, bien que proche de celui-ci). Les fleurs ont 2 à 4cm de  diamètre, cinq pétales volantés, jaune pâle brillant (de couleur canari, d'où l’un des noms vernaculaire), souvent avec des taches rouges à la base des pétales, huit étamines et un une poche à nectar allongée de 12 mm en forme d’éperon à sa partie postérieure[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante grimpante atteignant 2,5 m de hauteur en d'autres végétaux comme support. Les feuilles ont 2 à 5 cm de diamètre, lobées palmées avec trois à sept (principalement cinq) lobes ; elles sont subpeltées, avec le pétiole attaché à l'intérieur de la feuille (et non au bord, bien que proche de celui-ci). Les fleurs ont 2 à 4cm de  diamètre, cinq pétales volantés, jaune pâle brillant (de couleur canari, d'où l’un des noms vernaculaire), souvent avec des taches rouges à la base des pétales, huit étamines et un une poche à nectar allongée de 12 mm en forme d’éperon à sa partie postérieure.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace sensible au gel largement cultivée comme plante ornementale annuelle [2] dans les régions tempérées fraîches du monde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace sensible au gel largement cultivée comme plante ornementale annuelle  dans les régions tempérées fraîches du monde.
 </t>
         </is>
       </c>
